--- a/Data/template_svdetail9.xlsx
+++ b/Data/template_svdetail9.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29628"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DB266FD-ABDF-424C-9219-5D593BDB2AF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50233F0C-C140-4AE8-8A26-D5A82F332D8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Vụ việc</t>
   </si>
@@ -120,6 +120,12 @@
   </si>
   <si>
     <t>Tiền thuế</t>
+  </si>
+  <si>
+    <t>Giá trước thuế</t>
+  </si>
+  <si>
+    <t>Mã nhân viên</t>
   </si>
 </sst>
 </file>
@@ -493,11 +499,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A5:AD7"/>
+  <dimension ref="A5:AE7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7:XFD7"/>
+      <selection pane="bottomLeft" activeCell="AA12" sqref="AA12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -539,7 +545,7 @@
     <col min="37" max="37" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -627,9 +633,14 @@
       <c r="AC5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AD5" s="2"/>
+      <c r="AD5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE5" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="6" spans="1:30" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="S6"/>
@@ -637,7 +648,7 @@
       <c r="U6"/>
       <c r="V6" s="6"/>
     </row>
-    <row r="7" spans="1:30" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="8"/>
